--- a/FichesTemps/VictorTurgeon-01.xlsx
+++ b/FichesTemps/VictorTurgeon-01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Temps" sheetId="1" state="visible" r:id="rId2"/>
@@ -257,157 +257,157 @@
     <t xml:space="preserve">J'ai été présent à tous les cours et réunions.</t>
   </si>
   <si>
+    <t xml:space="preserve">Très souvent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai été ponctuel à ces rencontres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai participé activement à toutes les activités.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Je suis resté dans le sujet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai aidé à trouver des idées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai aidé l'équipe à prendre des décisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'exprime mon désaccord en étant poli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai respecté mon rôle et celui des autres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai encouragé les autres à s'exprimer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai fait preuve d'une bonne capacité d'écoute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai été ouvert à la rétroaction et à la critique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai respecté l'échéancier d'équipe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai produit un travail de qualité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai révisé le travail de mes coéquipiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">J'ai eu a cœur la cohérence de l'ensemble du travail final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commentaires:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coéquipier 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Karl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainville</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A été présent à tous les cours et réunions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A été ponctuel à ces rencontres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A participé activement à toutes les activités.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Est resté dans le sujet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aidé à trouver des idées.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A aidé l'équipe à prendre des décisions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A exprimé son désaccord en étant poli.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A respecté son rôle et celui des autres.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A encouragé les autres à s'exprimer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A fait preuve d'une bonne capacité d'écoute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A été ouvert à la rétroaction et à la critique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A respecté l'échéancier d'équipe.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A produit un travail de qualité.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A révisé le travail de ses coéquipiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A eu à cœur la cohérence de l'ensemble du travail final.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coéquipier 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Louis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garceau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coéquipier 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jean-Philippe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Page 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coéquipier 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maxime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aubin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Sélectionnez -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamais</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rarement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La plupart du temps</t>
+  </si>
+  <si>
     <t xml:space="preserve">Souvent</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai été ponctuel à ces rencontres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai participé activement à toutes les activités.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Je suis resté dans le sujet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai aidé à trouver des idées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai aidé l'équipe à prendre des décisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'exprime mon désaccord en étant poli.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai respecté mon rôle et celui des autres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai encouragé les autres à s'exprimer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai fait preuve d'une bonne capacité d'écoute.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai été ouvert à la rétroaction et à la critique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai respecté l'échéancier d'équipe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai produit un travail de qualité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai révisé le travail de mes coéquipiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J'ai eu a cœur la cohérence de l'ensemble du travail final.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commentaires:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coéquipier 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Karl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mainville</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A été présent à tous les cours et réunions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A été ponctuel à ces rencontres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A participé activement à toutes les activités.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Est resté dans le sujet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A aidé à trouver des idées.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A aidé l'équipe à prendre des décisions.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A exprimé son désaccord en étant poli.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A respecté son rôle et celui des autres.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A encouragé les autres à s'exprimer.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A fait preuve d'une bonne capacité d'écoute.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A été ouvert à la rétroaction et à la critique.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A respecté l'échéancier d'équipe.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A produit un travail de qualité.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A révisé le travail de ses coéquipiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A eu à cœur la cohérence de l'ensemble du travail final.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coéquipier 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Louis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garceau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coéquipier 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jean-Philippe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belval</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Page 5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coéquipier 4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maxime</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aubin</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - Sélectionnez -</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jamais</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rarement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La plupart du temps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Très souvent</t>
   </si>
 </sst>
 </file>
@@ -1066,9 +1066,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>121680</xdr:colOff>
+      <xdr:colOff>121320</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1082,7 +1082,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2873880" cy="845280"/>
+          <a:ext cx="2303280" cy="844920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1108,9 +1108,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1124,7 +1124,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2895480" cy="788400"/>
+          <a:ext cx="2405520" cy="788040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1150,9 +1150,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1166,7 +1166,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2895480" cy="788400"/>
+          <a:ext cx="2405520" cy="788040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1192,9 +1192,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1208,7 +1208,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2895480" cy="788400"/>
+          <a:ext cx="2405520" cy="788040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,9 +1234,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1250,7 +1250,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2895480" cy="788400"/>
+          <a:ext cx="2405520" cy="788040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1276,9 +1276,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>531360</xdr:colOff>
+      <xdr:colOff>531000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>216720</xdr:rowOff>
+      <xdr:rowOff>216360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1292,7 +1292,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2895480" cy="788400"/>
+          <a:ext cx="2405520" cy="788040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1308,14 +1308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F463"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D26" activeCellId="0" sqref="D26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D26" activeCellId="1" sqref="D11:D25 D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4262,21 +4262,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="7"/>
   </cols>
   <sheetData>
@@ -4464,7 +4464,7 @@
       <c r="I13" s="51"/>
       <c r="J13" s="10"/>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="52" t="s">
@@ -4475,18 +4475,18 @@
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="55" t="n">
         <f aca="false">IFERROR(SUM(E14:E28),"Autoévaluation à faire")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G14" s="55"/>
       <c r="H14" s="55"/>
       <c r="I14" s="55"/>
       <c r="J14" s="10"/>
     </row>
-    <row r="15" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="52" t="s">
@@ -4497,7 +4497,7 @@
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
@@ -4505,7 +4505,7 @@
       <c r="I15" s="55"/>
       <c r="J15" s="10"/>
     </row>
-    <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="52" t="s">
@@ -4516,7 +4516,7 @@
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
@@ -4524,7 +4524,7 @@
       <c r="I16" s="55"/>
       <c r="J16" s="10"/>
     </row>
-    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="52" t="s">
@@ -4535,7 +4535,7 @@
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="55"/>
       <c r="G17" s="55"/>
@@ -4543,7 +4543,7 @@
       <c r="I17" s="55"/>
       <c r="J17" s="10"/>
     </row>
-    <row r="18" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="52" t="s">
@@ -4554,7 +4554,7 @@
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
@@ -4562,7 +4562,7 @@
       <c r="I18" s="55"/>
       <c r="J18" s="10"/>
     </row>
-    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="52" t="s">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="55"/>
       <c r="G19" s="55"/>
@@ -4581,7 +4581,7 @@
       <c r="I19" s="55"/>
       <c r="J19" s="10"/>
     </row>
-    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="52" t="s">
@@ -4592,7 +4592,7 @@
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="55"/>
       <c r="G20" s="55"/>
@@ -4600,7 +4600,7 @@
       <c r="I20" s="55"/>
       <c r="J20" s="10"/>
     </row>
-    <row r="21" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="52" t="s">
@@ -4611,7 +4611,7 @@
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="55"/>
       <c r="G21" s="55"/>
@@ -4619,7 +4619,7 @@
       <c r="I21" s="55"/>
       <c r="J21" s="10"/>
     </row>
-    <row r="22" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="52" t="s">
@@ -4630,7 +4630,7 @@
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="55"/>
       <c r="G22" s="55"/>
@@ -4638,7 +4638,7 @@
       <c r="I22" s="55"/>
       <c r="J22" s="10"/>
     </row>
-    <row r="23" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="52" t="s">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="55"/>
       <c r="G23" s="55"/>
@@ -4657,7 +4657,7 @@
       <c r="I23" s="55"/>
       <c r="J23" s="10"/>
     </row>
-    <row r="24" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="52" t="s">
@@ -4668,7 +4668,7 @@
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
@@ -4676,7 +4676,7 @@
       <c r="I24" s="55"/>
       <c r="J24" s="10"/>
     </row>
-    <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="52" t="s">
@@ -4687,7 +4687,7 @@
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
@@ -4695,7 +4695,7 @@
       <c r="I25" s="55"/>
       <c r="J25" s="10"/>
     </row>
-    <row r="26" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="52" t="s">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="E26" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D26,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="55"/>
@@ -4714,7 +4714,7 @@
       <c r="I26" s="55"/>
       <c r="J26" s="10"/>
     </row>
-    <row r="27" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="52" t="s">
@@ -4725,7 +4725,7 @@
       </c>
       <c r="E27" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D27,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
@@ -4733,7 +4733,7 @@
       <c r="I27" s="55"/>
       <c r="J27" s="10"/>
     </row>
-    <row r="28" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="52" t="s">
@@ -4744,7 +4744,7 @@
       </c>
       <c r="E28" s="54" t="n">
         <f aca="false">VLOOKUP(Évaluateur!D28,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F28" s="55"/>
       <c r="G28" s="55"/>
@@ -4882,21 +4882,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="7"/>
   </cols>
   <sheetData>
@@ -5047,11 +5047,11 @@
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5069,7 +5069,7 @@
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5088,7 +5088,7 @@
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5107,7 +5107,7 @@
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5126,7 +5126,7 @@
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5164,7 +5164,7 @@
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5183,7 +5183,7 @@
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5202,7 +5202,7 @@
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5221,7 +5221,7 @@
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5240,7 +5240,7 @@
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5259,7 +5259,7 @@
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5278,7 +5278,7 @@
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5297,7 +5297,7 @@
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5316,7 +5316,7 @@
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 1'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -5452,21 +5452,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="7"/>
   </cols>
   <sheetData>
@@ -5617,11 +5617,11 @@
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -5658,7 +5658,7 @@
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -5677,7 +5677,7 @@
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -5715,7 +5715,7 @@
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -5772,7 +5772,7 @@
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -5791,7 +5791,7 @@
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -5810,7 +5810,7 @@
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -5848,7 +5848,7 @@
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -5886,7 +5886,7 @@
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 2'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -6022,21 +6022,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="7"/>
   </cols>
   <sheetData>
@@ -6187,11 +6187,11 @@
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6209,7 +6209,7 @@
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6228,7 +6228,7 @@
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6247,7 +6247,7 @@
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6266,7 +6266,7 @@
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6304,7 +6304,7 @@
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6323,7 +6323,7 @@
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6361,7 +6361,7 @@
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6380,7 +6380,7 @@
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6399,7 +6399,7 @@
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6418,7 +6418,7 @@
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -6437,7 +6437,7 @@
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -6456,7 +6456,7 @@
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 3'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -6592,21 +6592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="36" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="37" width="41.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="1" width="7"/>
   </cols>
   <sheetData>
@@ -6757,11 +6757,11 @@
       </c>
       <c r="E11" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D11,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11" s="60" t="n">
         <f aca="false">IFERROR(SUM(E11:E25),"à évaluer")</f>
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="G11" s="60"/>
       <c r="H11" s="60"/>
@@ -6779,7 +6779,7 @@
       </c>
       <c r="E12" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D12,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="60"/>
@@ -6798,7 +6798,7 @@
       </c>
       <c r="E13" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D13,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="60"/>
@@ -6817,7 +6817,7 @@
       </c>
       <c r="E14" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D14,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="60"/>
@@ -6836,7 +6836,7 @@
       </c>
       <c r="E15" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D15,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="60"/>
@@ -6855,7 +6855,7 @@
       </c>
       <c r="E16" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D16,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="60"/>
@@ -6874,7 +6874,7 @@
       </c>
       <c r="E17" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D17,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="60"/>
@@ -6893,7 +6893,7 @@
       </c>
       <c r="E18" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D18,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="60"/>
@@ -6912,7 +6912,7 @@
       </c>
       <c r="E19" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D19,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="60"/>
@@ -6931,7 +6931,7 @@
       </c>
       <c r="E20" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D20,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="60"/>
@@ -6950,7 +6950,7 @@
       </c>
       <c r="E21" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D21,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="60"/>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="E22" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D22,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="60"/>
@@ -6988,7 +6988,7 @@
       </c>
       <c r="E23" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D23,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="60"/>
@@ -7007,7 +7007,7 @@
       </c>
       <c r="E24" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D24,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="60"/>
@@ -7026,7 +7026,7 @@
       </c>
       <c r="E25" s="54" t="n">
         <f aca="false">VLOOKUP('Coéquipier 4'!D25,Menu!$B$4:$C$8,2,FALSE())</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="60"/>
@@ -7162,17 +7162,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G28" activeCellId="0" sqref="G28"/>
+      <selection pane="topLeft" activeCell="G28" activeCellId="1" sqref="D11:D25 G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="24"/>
   </cols>
@@ -7211,7 +7211,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="C7" s="1" t="n">
         <v>4</v>
@@ -7219,7 +7219,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1" t="n">
         <v>5</v>
